--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H2">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I2">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J2">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N2">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O2">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P2">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q2">
-        <v>0.8321911161987501</v>
+        <v>5.791629222876001</v>
       </c>
       <c r="R2">
-        <v>3.328764464795</v>
+        <v>23.166516891504</v>
       </c>
       <c r="S2">
-        <v>0.002134849645257337</v>
+        <v>0.01163945796799253</v>
       </c>
       <c r="T2">
-        <v>0.001179044734804655</v>
+        <v>0.006518984293296125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H3">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I3">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J3">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.36113</v>
       </c>
       <c r="O3">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P3">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q3">
-        <v>2.390394296271667</v>
+        <v>19.43496667693833</v>
       </c>
       <c r="R3">
-        <v>14.34236577763</v>
+        <v>116.60980006163</v>
       </c>
       <c r="S3">
-        <v>0.006132164013875345</v>
+        <v>0.03905852205663589</v>
       </c>
       <c r="T3">
-        <v>0.005080050280997737</v>
+        <v>0.03281362746960689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H4">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I4">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J4">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N4">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O4">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P4">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q4">
-        <v>1.323225544791333</v>
+        <v>18.42646295021184</v>
       </c>
       <c r="R4">
-        <v>7.939353268748</v>
+        <v>110.558777701271</v>
       </c>
       <c r="S4">
-        <v>0.003394517833591682</v>
+        <v>0.0370317285092465</v>
       </c>
       <c r="T4">
-        <v>0.002812110249394872</v>
+        <v>0.03111088899103869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H5">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I5">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J5">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N5">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O5">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P5">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q5">
-        <v>0.424432095747</v>
+        <v>6.20319881438325</v>
       </c>
       <c r="R5">
-        <v>1.697728382988</v>
+        <v>24.812795257533</v>
       </c>
       <c r="S5">
-        <v>0.001088810840928167</v>
+        <v>0.0124665908483798</v>
       </c>
       <c r="T5">
-        <v>0.0006013335374912732</v>
+        <v>0.006982241798116458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H6">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I6">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J6">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N6">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O6">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P6">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q6">
-        <v>0.5077036327403334</v>
+        <v>35.67369683884201</v>
       </c>
       <c r="R6">
-        <v>3.046221796442</v>
+        <v>214.042181033052</v>
       </c>
       <c r="S6">
-        <v>0.001302430294140155</v>
+        <v>0.07169355615489814</v>
       </c>
       <c r="T6">
-        <v>0.001078968430517449</v>
+        <v>0.06023079010073511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H7">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I7">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J7">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N7">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O7">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P7">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q7">
-        <v>1.796790043882167</v>
+        <v>5.315886758889166</v>
       </c>
       <c r="R7">
-        <v>10.780740263293</v>
+        <v>31.895320553335</v>
       </c>
       <c r="S7">
-        <v>0.004609369786720539</v>
+        <v>0.01068335663621318</v>
       </c>
       <c r="T7">
-        <v>0.003818526416982452</v>
+        <v>0.008975241927416788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.132881</v>
       </c>
       <c r="I8">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J8">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N8">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O8">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P8">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q8">
-        <v>3.6530776878575</v>
+        <v>3.126960010104</v>
       </c>
       <c r="R8">
-        <v>21.918466127145</v>
+        <v>18.761760060624</v>
       </c>
       <c r="S8">
-        <v>0.009371370895718044</v>
+        <v>0.006284262718587064</v>
       </c>
       <c r="T8">
-        <v>0.00776349674346695</v>
+        <v>0.005279499707383851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.132881</v>
       </c>
       <c r="I9">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J9">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>83.36113</v>
       </c>
       <c r="O9">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P9">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q9">
         <v>10.49313781283667</v>
@@ -1013,10 +1013,10 @@
         <v>94.43824031553001</v>
       </c>
       <c r="S9">
-        <v>0.02691842186407176</v>
+        <v>0.02108809660025441</v>
       </c>
       <c r="T9">
-        <v>0.0334499214906452</v>
+        <v>0.0265746209577687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.132881</v>
       </c>
       <c r="I10">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J10">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N10">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O10">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P10">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q10">
-        <v>5.808576443065333</v>
+        <v>9.948636308655667</v>
       </c>
       <c r="R10">
-        <v>52.277187987588</v>
+        <v>89.53772677790101</v>
       </c>
       <c r="S10">
-        <v>0.0149009489738011</v>
+        <v>0.01999380997942058</v>
       </c>
       <c r="T10">
-        <v>0.01851652284174293</v>
+        <v>0.02519563200873924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.132881</v>
       </c>
       <c r="I11">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J11">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N11">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O11">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P11">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q11">
-        <v>1.863133826838</v>
+        <v>3.3491706531705</v>
       </c>
       <c r="R11">
-        <v>11.178802961028</v>
+        <v>20.095023919023</v>
       </c>
       <c r="S11">
-        <v>0.004779563866843912</v>
+        <v>0.006730840242886652</v>
       </c>
       <c r="T11">
-        <v>0.003959519789403438</v>
+        <v>0.005654675923663042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.132881</v>
       </c>
       <c r="I12">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J12">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N12">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O12">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P12">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q12">
-        <v>2.228671727811333</v>
+        <v>19.260594754068</v>
       </c>
       <c r="R12">
-        <v>20.058045550302</v>
+        <v>173.345352786612</v>
       </c>
       <c r="S12">
-        <v>0.005717291322750398</v>
+        <v>0.03870808617945116</v>
       </c>
       <c r="T12">
-        <v>0.00710453780874879</v>
+        <v>0.04877883185565217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.132881</v>
       </c>
       <c r="I13">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J13">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N13">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O13">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P13">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q13">
-        <v>7.887387273553666</v>
+        <v>2.870101775098333</v>
       </c>
       <c r="R13">
-        <v>70.98648546198299</v>
+        <v>25.830915975885</v>
       </c>
       <c r="S13">
-        <v>0.02023379677479255</v>
+        <v>0.005768053804820206</v>
       </c>
       <c r="T13">
-        <v>0.02514333555630306</v>
+        <v>0.00726873773545135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H14">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I14">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J14">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N14">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O14">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P14">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q14">
-        <v>12.17505858809917</v>
+        <v>1.82736601628</v>
       </c>
       <c r="R14">
-        <v>73.050351528595</v>
+        <v>10.96419609768</v>
       </c>
       <c r="S14">
-        <v>0.03123311340610757</v>
+        <v>0.003672464020075341</v>
       </c>
       <c r="T14">
-        <v>0.02587435466111399</v>
+        <v>0.003085289967591425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H15">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I15">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J15">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.36113</v>
       </c>
       <c r="O15">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P15">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q15">
-        <v>34.97176314342556</v>
+        <v>6.132091034538889</v>
       </c>
       <c r="R15">
-        <v>314.74586829083</v>
+        <v>55.18881931085</v>
       </c>
       <c r="S15">
-        <v>0.08971431524262384</v>
+        <v>0.01232368528884802</v>
       </c>
       <c r="T15">
-        <v>0.1114826425043192</v>
+        <v>0.01552995851460655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H16">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I16">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J16">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N16">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O16">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P16">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q16">
-        <v>19.35895279282978</v>
+        <v>5.813889477327223</v>
       </c>
       <c r="R16">
-        <v>174.230575135468</v>
+        <v>52.32500529594501</v>
       </c>
       <c r="S16">
-        <v>0.04966221424124866</v>
+        <v>0.01168419448099624</v>
       </c>
       <c r="T16">
-        <v>0.06171227926398554</v>
+        <v>0.01472409034419835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H17">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I17">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J17">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N17">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O17">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P17">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q17">
-        <v>6.209493867218</v>
+        <v>1.9572238258725</v>
       </c>
       <c r="R17">
-        <v>37.256963203308</v>
+        <v>11.743342955235</v>
       </c>
       <c r="S17">
-        <v>0.01592943678635952</v>
+        <v>0.003933439724562327</v>
       </c>
       <c r="T17">
-        <v>0.01319637564154793</v>
+        <v>0.003304539419304851</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H18">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I18">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J18">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N18">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O18">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P18">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q18">
-        <v>7.427766715702444</v>
+        <v>11.25571040026</v>
       </c>
       <c r="R18">
-        <v>66.84990044132199</v>
+        <v>101.30139360234</v>
       </c>
       <c r="S18">
-        <v>0.01905471571302438</v>
+        <v>0.02262064145720049</v>
       </c>
       <c r="T18">
-        <v>0.02367816166362798</v>
+        <v>0.0285058905003043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H19">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I19">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J19">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N19">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O19">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P19">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q19">
-        <v>26.28725977597922</v>
+        <v>1.677260479869444</v>
       </c>
       <c r="R19">
-        <v>236.585337983813</v>
+        <v>15.095344318825</v>
       </c>
       <c r="S19">
-        <v>0.06743564803224104</v>
+        <v>0.003370796386568574</v>
       </c>
       <c r="T19">
-        <v>0.0837982681057529</v>
+        <v>0.004247781959505799</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H20">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I20">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J20">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N20">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O20">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P20">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q20">
-        <v>18.7119878205225</v>
+        <v>10.379502180684</v>
       </c>
       <c r="R20">
-        <v>74.84795128209001</v>
+        <v>41.51800872273601</v>
       </c>
       <c r="S20">
-        <v>0.04800253185010157</v>
+        <v>0.02085972266380093</v>
       </c>
       <c r="T20">
-        <v>0.02651106252887084</v>
+        <v>0.01168303582364195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H21">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I21">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J21">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>83.36113</v>
       </c>
       <c r="O21">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P21">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q21">
-        <v>53.74850570671</v>
+        <v>34.83048918394501</v>
       </c>
       <c r="R21">
-        <v>322.49103424026</v>
+        <v>208.98293510367</v>
       </c>
       <c r="S21">
-        <v>0.1378829647511853</v>
+        <v>0.06999895871438906</v>
       </c>
       <c r="T21">
-        <v>0.1142259718174751</v>
+        <v>0.05880713436068474</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H22">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I22">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J22">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N22">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O22">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P22">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q22">
-        <v>29.752997593916</v>
+        <v>33.0230933324565</v>
       </c>
       <c r="R22">
-        <v>178.517985563496</v>
+        <v>198.138559994739</v>
       </c>
       <c r="S22">
-        <v>0.07632642925683925</v>
+        <v>0.0663666288059358</v>
       </c>
       <c r="T22">
-        <v>0.06323087535108486</v>
+        <v>0.05575556163886316</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H23">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I23">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J23">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N23">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O23">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P23">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q23">
-        <v>9.543442667994</v>
+        <v>11.11709903092425</v>
       </c>
       <c r="R23">
-        <v>38.173770671976</v>
+        <v>44.468396123697</v>
       </c>
       <c r="S23">
-        <v>0.0244821349299707</v>
+        <v>0.0223420736923828</v>
       </c>
       <c r="T23">
-        <v>0.01352110784480075</v>
+        <v>0.01251326546999233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H24">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I24">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J24">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N24">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O24">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P24">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q24">
-        <v>11.415820245314</v>
+        <v>63.93282440617801</v>
       </c>
       <c r="R24">
-        <v>68.494921471884</v>
+        <v>383.596946437068</v>
       </c>
       <c r="S24">
-        <v>0.0292854121206572</v>
+        <v>0.1284860259202212</v>
       </c>
       <c r="T24">
-        <v>0.02426082631450363</v>
+        <v>0.1079429627030676</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H25">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I25">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J25">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N25">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O25">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P25">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q25">
-        <v>40.401192421681</v>
+        <v>9.526897541752499</v>
       </c>
       <c r="R25">
-        <v>242.407154530086</v>
+        <v>57.161385250515</v>
       </c>
       <c r="S25">
-        <v>0.1036426244290742</v>
+        <v>0.01914624007086127</v>
       </c>
       <c r="T25">
-        <v>0.0858603491626968</v>
+        <v>0.01608503230659653</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H26">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I26">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J26">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N26">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O26">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P26">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q26">
-        <v>5.589470280000834</v>
+        <v>2.118245246936</v>
       </c>
       <c r="R26">
-        <v>33.536821680005</v>
+        <v>12.709471481616</v>
       </c>
       <c r="S26">
-        <v>0.01433886809431688</v>
+        <v>0.004257045050506233</v>
       </c>
       <c r="T26">
-        <v>0.01187870558042851</v>
+        <v>0.003576404918908413</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H27">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I27">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J27">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>83.36113</v>
       </c>
       <c r="O27">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P27">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q27">
-        <v>16.05525175217445</v>
+        <v>7.108194292752222</v>
       </c>
       <c r="R27">
-        <v>144.49726576957</v>
+        <v>63.97374863477</v>
       </c>
       <c r="S27">
-        <v>0.04118711175890626</v>
+        <v>0.01428536349875816</v>
       </c>
       <c r="T27">
-        <v>0.05118077358764777</v>
+        <v>0.01800200973182486</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H28">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I28">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J28">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N28">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O28">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P28">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q28">
-        <v>8.887537624930223</v>
+        <v>6.739341566956556</v>
       </c>
       <c r="R28">
-        <v>79.987838624372</v>
+        <v>60.65407410260902</v>
       </c>
       <c r="S28">
-        <v>0.02279951825544617</v>
+        <v>0.01354407885620533</v>
       </c>
       <c r="T28">
-        <v>0.02833160500716839</v>
+        <v>0.01706786385934158</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H29">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I29">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J29">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N29">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O29">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P29">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q29">
-        <v>2.850728082622</v>
+        <v>2.2687737592845</v>
       </c>
       <c r="R29">
-        <v>17.104368495732</v>
+        <v>13.612642555707</v>
       </c>
       <c r="S29">
-        <v>0.007313074746230807</v>
+        <v>0.004559562740268625</v>
       </c>
       <c r="T29">
-        <v>0.006058348624643045</v>
+        <v>0.00383055439134455</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H30">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I30">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J30">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N30">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O30">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P30">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q30">
-        <v>3.410027229337556</v>
+        <v>13.047388888612</v>
       </c>
       <c r="R30">
-        <v>30.690245064038</v>
+        <v>117.426499997508</v>
       </c>
       <c r="S30">
-        <v>0.008747864858401712</v>
+        <v>0.02622138412473157</v>
       </c>
       <c r="T30">
-        <v>0.01087045125460596</v>
+        <v>0.0330434442383192</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H31">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I31">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J31">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N31">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O31">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P31">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q31">
-        <v>12.06826695718078</v>
+        <v>1.944245984496111</v>
       </c>
       <c r="R31">
-        <v>108.614402614627</v>
+        <v>17.498213860465</v>
       </c>
       <c r="S31">
-        <v>0.03095915701442684</v>
+        <v>0.003907358110321706</v>
       </c>
       <c r="T31">
-        <v>0.03847110268122124</v>
+        <v>0.004923941818760924</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H32">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I32">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J32">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N32">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O32">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P32">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q32">
-        <v>3.630689353701667</v>
+        <v>8.478526197399999</v>
       </c>
       <c r="R32">
-        <v>21.78413612221</v>
+        <v>50.8711571844</v>
       </c>
       <c r="S32">
-        <v>0.009313937301078384</v>
+        <v>0.01703932442970784</v>
       </c>
       <c r="T32">
-        <v>0.007715917202553217</v>
+        <v>0.01431498210197157</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H33">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I33">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J33">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>83.36113</v>
       </c>
       <c r="O33">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P33">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q33">
-        <v>10.42882933221556</v>
+        <v>28.45138522769444</v>
       </c>
       <c r="R33">
-        <v>93.85946398994001</v>
+        <v>256.06246704925</v>
       </c>
       <c r="S33">
-        <v>0.0267534490178485</v>
+        <v>0.05717885067312142</v>
       </c>
       <c r="T33">
-        <v>0.0332449195487735</v>
+        <v>0.07205516515989063</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H34">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I34">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J34">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N34">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O34">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P34">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q34">
-        <v>5.772977870713778</v>
+        <v>26.97500873013611</v>
       </c>
       <c r="R34">
-        <v>51.956800836424</v>
+        <v>242.775078571225</v>
       </c>
       <c r="S34">
-        <v>0.01480962668247032</v>
+        <v>0.05421177154443906</v>
       </c>
       <c r="T34">
-        <v>0.01840304206301134</v>
+        <v>0.06831613623323593</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H35">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I35">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J35">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N35">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O35">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P35">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q35">
-        <v>1.851715382924</v>
+        <v>9.0810343051125</v>
       </c>
       <c r="R35">
-        <v>11.110292297544</v>
+        <v>54.486205830675</v>
       </c>
       <c r="S35">
-        <v>0.004750271724132103</v>
+        <v>0.01825018712916979</v>
       </c>
       <c r="T35">
-        <v>0.003935253387285452</v>
+        <v>0.01533224531227363</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H36">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I36">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J36">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N36">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O36">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P36">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q36">
-        <v>2.215013040088444</v>
+        <v>52.2237114233</v>
       </c>
       <c r="R36">
-        <v>19.935117360796</v>
+        <v>470.0134028097</v>
       </c>
       <c r="S36">
-        <v>0.005682252202442214</v>
+        <v>0.1049541796707462</v>
       </c>
       <c r="T36">
-        <v>0.007060996778396845</v>
+        <v>0.132260279130644</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H37">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I37">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J37">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N37">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O37">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P37">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q37">
-        <v>7.839048454348223</v>
+        <v>7.78207364684722</v>
       </c>
       <c r="R37">
-        <v>70.551436089134</v>
+        <v>70.03866282162498</v>
       </c>
       <c r="S37">
-        <v>0.02010979147237563</v>
+        <v>0.0156396612473961</v>
       </c>
       <c r="T37">
-        <v>0.02498924154398631</v>
+        <v>0.01970865732625871</v>
       </c>
     </row>
   </sheetData>
